--- a/jpcore-r4/feature/swg1-valueSet-test/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg1-valueSet-test/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T13:01:59+00:00</t>
+    <t>2022-07-05T13:18:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1231,7 +1231,7 @@
 http://dicom.nema.org/medical/dicom/current/output/chtml/part16/sect_CID_29.html</t>
   </si>
   <si>
-    <t>ftp://medical.nema.org/medical/dicom/resources/valuesets/fhir/json/ValueSet-dicom-cid-29-AcquisitionModality.json</t>
+    <t>http://hl7.org/fhir/ValueSet/dicom-cid29</t>
   </si>
   <si>
     <t>(0008,0060)</t>
@@ -1971,7 +1971,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="57.89453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.22265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
